--- a/validate/test_prior_missing.xlsx
+++ b/validate/test_prior_missing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019CA990-9DDB-43C0-BAF8-47B4BC23F34D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01959C61-FCAE-475C-8FBF-AEF02582B1AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="1" r:id="rId1"/>
@@ -1735,12 +1735,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1794,12 +1791,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1836,12 +1830,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1883,7 +1874,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050" b="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2196,12 +2191,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2255,12 +2247,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2297,12 +2286,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2344,7 +2330,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2894,12 +2884,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2953,12 +2940,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2995,12 +2979,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3042,7 +3023,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3355,12 +3340,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3414,12 +3396,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3456,12 +3435,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3503,7 +3479,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5774,16 +5754,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5817,16 +5797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6155,7 +6135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C40" sqref="A1:I40"/>
     </sheetView>
   </sheetViews>
@@ -7504,7 +7484,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" ht="201.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>252</v>
       </c>
@@ -7642,7 +7622,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" ht="164" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>435</v>
       </c>
@@ -35257,8 +35237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/validate/test_prior_missing.xlsx
+++ b/validate/test_prior_missing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF47F0E-5385-40AB-AC2F-380B489045E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938654A8-BC97-45EF-BF05-6E604EAD7B6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3126,7 +3126,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43333333333333335</c:v>
+                  <c:v>0.44827586206896552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,10 +3202,10 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3284,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5751,16 +5751,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5795,15 +5795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
+      <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35030,7 +35030,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35235,7 +35235,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35286,7 +35286,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>D3/2</f>
+        <f t="shared" ref="E3:E4" si="0">D3/1</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -35294,8 +35294,8 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <f>F3/30</f>
-        <v>0.43333333333333335</v>
+        <f>F3/29</f>
+        <v>0.44827586206896552</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -35306,23 +35306,23 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="0">B4/28</f>
+        <f t="shared" ref="C4:C5" si="1">B4/28</f>
         <v>0.25</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <f>D4/2</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="1">B4+D4</f>
+        <f t="shared" ref="F4:F5" si="2">B4+D4</f>
         <v>8</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G5" si="2">F4/30</f>
-        <v>0.26666666666666666</v>
+        <f t="shared" ref="G4:G5" si="3">F4/29</f>
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -35333,23 +35333,23 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <f>D5/2</f>
+        <f>D5/1</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="3"/>
+        <v>0.27586206896551724</v>
       </c>
     </row>
   </sheetData>

--- a/validate/test_prior_missing.xlsx
+++ b/validate/test_prior_missing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938654A8-BC97-45EF-BF05-6E604EAD7B6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D8A3BF-0661-49AF-8065-9AF0E5BD5BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missing" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="204">
   <si>
     <t>Document Title</t>
   </si>
@@ -101,9 +103,6 @@
   </si>
   <si>
     <t>History</t>
-  </si>
-  <si>
-    <t>feedback</t>
   </si>
   <si>
     <t>Requirement</t>
@@ -647,6 +646,12 @@
   </si>
   <si>
     <t>greedy, change sensitivity</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -2398,17 +2403,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:f>(Information!$B$1,Information!$D$1,Information!$F$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Percentage</c:v>
+                  <c:v>Number</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Percentage in missing</c:v>
+                  <c:v>Number in missing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Percentage in all</c:v>
+                  <c:v>Number in all</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2422,18 +2427,18 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$2,Information!$E$2,Information!$G$2)</c:f>
+              <c:f>(Information!$B$2,Information!$D$2,Information!$F$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.50627615062761511</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52158273381294962</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,17 +2482,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:f>(Information!$B$1,Information!$D$1,Information!$F$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Percentage</c:v>
+                  <c:v>Number</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Percentage in missing</c:v>
+                  <c:v>Number in missing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Percentage in all</c:v>
+                  <c:v>Number in all</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2501,18 +2506,18 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$3,Information!$E$3,Information!$G$3)</c:f>
+              <c:f>(Information!$B$3,Information!$D$3,Information!$F$3)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15899581589958159</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14748201438848921</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,17 +2561,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:f>(Information!$B$1,Information!$D$1,Information!$F$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Percentage</c:v>
+                  <c:v>Number</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Percentage in missing</c:v>
+                  <c:v>Number in missing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Percentage in all</c:v>
+                  <c:v>Number in all</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2580,18 +2585,18 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$4,Information!$E$4,Information!$G$4)</c:f>
+              <c:f>(Information!$B$4,Information!$D$4,Information!$F$4)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.10460251046025104</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10071942446043165</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,17 +2640,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:f>(Information!$B$1,Information!$D$1,Information!$F$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Percentage</c:v>
+                  <c:v>Number</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Percentage in missing</c:v>
+                  <c:v>Number in missing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Percentage in all</c:v>
+                  <c:v>Number in all</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2659,18 +2664,18 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$5,Information!$E$5,Information!$G$5)</c:f>
+              <c:f>(Information!$B$5,Information!$D$5,Information!$F$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.31380753138075312</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10256410256410256</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28417266187050361</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,17 +2719,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:f>(Information!$B$1,Information!$D$1,Information!$F$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Percentage</c:v>
+                  <c:v>Number</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Percentage in missing</c:v>
+                  <c:v>Number in missing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Percentage in all</c:v>
+                  <c:v>Number in all</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2738,18 +2743,18 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$6,Information!$E$6,Information!$G$6)</c:f>
+              <c:f>(Information!$B$6,Information!$D$6,Information!$F$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.3682008368200833E-2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2733812949640287E-2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,7 +2774,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>feedback</c:v>
+                  <c:v>Feedback</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2793,17 +2798,17 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:f>(Information!$B$1,Information!$D$1,Information!$F$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Percentage</c:v>
+                  <c:v>Number</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Percentage in missing</c:v>
+                  <c:v>Number in missing</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Percentage in all</c:v>
+                  <c:v>Number in all</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2817,18 +2822,18 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Information!$C$7,Information!$E$7,Information!$G$7)</c:f>
+              <c:f>(Information!$B$7,Information!$D$7,Information!$F$7)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.1841004184100417E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5971223021582732E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,6 +2841,87 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-FFFE-4B2E-9038-FF75B6DA38AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$B$1,Information!$D$1,Information!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Number</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Number in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$8:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$B$8,Information!$D$8,Information!$F$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0853-4AFC-9CBD-CE01BA637DD1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3038,6 +3124,780 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Source code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentage in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Percentage in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$2:$G$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$2,Information!$E$2,Information!$G$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64016736401673635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63669064748201443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E029-4EDF-970A-61C4E37AEE78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentage in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Percentage in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$3:$G$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$3,Information!$E$3,Information!$G$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.15899581589958159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14748201438848921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E029-4EDF-970A-61C4E37AEE78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Requirement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentage in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Percentage in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$4:$G$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$4,Information!$E$4,Information!$G$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10460251046025104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10071942446043165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E029-4EDF-970A-61C4E37AEE78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>History</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentage in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Percentage in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$5:$G$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$5,Information!$E$5,Information!$G$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.31380753138075312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10256410256410256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28417266187050361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E029-4EDF-970A-61C4E37AEE78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentage in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Percentage in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$6:$G$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$6,Information!$E$6,Information!$G$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9497907949790794E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9136690647482008E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E029-4EDF-970A-61C4E37AEE78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feedback</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentage in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Percentage in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$7:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$7,Information!$E$7,Information!$G$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.1841004184100417E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5971223021582732E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E029-4EDF-970A-61C4E37AEE78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$1,Information!$E$1,Information!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Percentage in missing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Percentage in all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Information!$B$8:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Information!$C$8,Information!$E$8,Information!$G$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11715481171548117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14388489208633093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E029-4EDF-970A-61C4E37AEE78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="395964936"/>
+        <c:axId val="395964280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="395964936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395964280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395964280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395964936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3614,6 +4474,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5665,6 +6565,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5751,16 +7154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5782,6 +7185,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF151F5-352C-426D-B4A3-094B1F955E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6132,8 +7573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6149,7 +7590,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6164,16 +7605,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -6198,22 +7639,22 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="2">
         <v>2001</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>7</v>
@@ -6244,22 +7685,22 @@
         <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="2">
         <v>2002</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
@@ -6290,22 +7731,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="2">
         <v>2007</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>7</v>
@@ -6336,22 +7777,22 @@
         <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>2007</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>7</v>
@@ -6382,22 +7823,22 @@
         <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D6" s="2">
         <v>2009</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>7</v>
@@ -6428,28 +7869,28 @@
         <v>225</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D7" s="2">
         <v>2009</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -6474,28 +7915,28 @@
         <v>226</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D8" s="2">
         <v>2009</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -6520,28 +7961,28 @@
         <v>246</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D9" s="2">
         <v>2010</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -6566,28 +8007,28 @@
         <v>254</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="2">
         <v>2010</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -6612,28 +8053,28 @@
         <v>308</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="2">
         <v>2011</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -6658,28 +8099,28 @@
         <v>311</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="2">
         <v>2011</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -6704,28 +8145,28 @@
         <v>315</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D13" s="2">
         <v>2011</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -6750,28 +8191,28 @@
         <v>316</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D14" s="2">
         <v>2011</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -6796,28 +8237,28 @@
         <v>322</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D15" s="2">
         <v>2011</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -6842,22 +8283,22 @@
         <v>328</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D16" s="2">
         <v>2011</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>11</v>
@@ -6888,28 +8329,28 @@
         <v>375</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D17" s="2">
         <v>2012</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -6934,22 +8375,22 @@
         <v>509</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="2">
         <v>2015</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>7</v>
@@ -6980,28 +8421,28 @@
         <v>541</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D19" s="2">
         <v>2015</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -7026,22 +8467,22 @@
         <v>542</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D20" s="2">
         <v>2015</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -7072,25 +8513,25 @@
         <v>571</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D21" s="2">
         <v>2016</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>8</v>
@@ -7118,22 +8559,22 @@
         <v>653</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D22" s="2">
         <v>2016</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>9</v>
@@ -7164,22 +8605,22 @@
         <v>704</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D23" s="2">
         <v>2017</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>7</v>
@@ -7210,25 +8651,25 @@
         <v>723</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D24" s="2">
         <v>2017</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
@@ -7256,28 +8697,28 @@
         <v>729</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D25" s="2">
         <v>2017</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -7302,28 +8743,28 @@
         <v>737</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D26" s="2">
         <v>2018</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -7348,28 +8789,28 @@
         <v>739</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="D27" s="2">
         <v>2018</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -7394,28 +8835,28 @@
         <v>745</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D28" s="2">
         <v>2018</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -7440,28 +8881,28 @@
         <v>206</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="D29" s="2">
         <v>2009</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -7486,25 +8927,25 @@
         <v>252</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D30" s="2">
         <v>2010</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>8</v>
@@ -7532,28 +8973,28 @@
         <v>275</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="D31" s="2">
         <v>2010</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -7578,28 +9019,28 @@
         <v>281</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D32" s="2">
         <v>2010</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -7624,28 +9065,28 @@
         <v>435</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D33" s="2">
         <v>2013</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -7670,28 +9111,28 @@
         <v>488</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D34" s="2">
         <v>2014</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -7716,28 +9157,28 @@
         <v>500</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D35" s="2">
         <v>2015</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -7762,28 +9203,28 @@
         <v>540</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D36" s="2">
         <v>2015</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -7808,28 +9249,28 @@
         <v>552</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D37" s="2">
         <v>2015</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -7854,25 +9295,25 @@
         <v>578</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D38" s="2">
         <v>2016</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>8</v>
@@ -7900,28 +9341,28 @@
         <v>623</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D39" s="2">
         <v>2016</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -7946,28 +9387,28 @@
         <v>689</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D40" s="2">
         <v>2017</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -34773,16 +36214,16 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -34868,7 +36309,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -34916,7 +36357,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -34925,21 +36366,21 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -34966,7 +36407,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>179</v>
@@ -34993,7 +36434,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -35027,10 +36468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35049,16 +36490,16 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -35066,11 +36507,11 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <f>B2/239</f>
-        <v>0.50627615062761511</v>
+        <v>0.64016736401673635</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -35081,16 +36522,16 @@
       </c>
       <c r="F2">
         <f>B2+D2</f>
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <f>F2/278</f>
-        <v>0.52158273381294962</v>
+        <v>0.63669064748201443</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>38</v>
@@ -35103,7 +36544,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">D3/39</f>
+        <f t="shared" ref="E3:E8" si="1">D3/39</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="F3">
@@ -35111,13 +36552,13 @@
         <v>41</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="3">F3/278</f>
+        <f t="shared" ref="G3:G8" si="3">F3/278</f>
         <v>0.14748201438848921</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -35161,7 +36602,7 @@
         <v>0.10256410256410256</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F7" si="5">B5+D5</f>
+        <f t="shared" ref="F5:F8" si="5">B5+D5</f>
         <v>79</v>
       </c>
       <c r="G5">
@@ -35171,14 +36612,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>8.3682008368200833E-2</v>
+        <v>7.9497907949790794E-2</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -35189,22 +36630,22 @@
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>8.2733812949640287E-2</v>
+        <v>7.9136690647482008E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7" si="6">B7/239</f>
+        <f t="shared" ref="C7:C8" si="6">B7/239</f>
         <v>4.1841004184100417E-2</v>
       </c>
       <c r="D7">
@@ -35221,6 +36662,33 @@
       <c r="G7">
         <f t="shared" si="3"/>
         <v>3.5971223021582732E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="6"/>
+        <v>0.11715481171548117</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.14388489208633093</v>
       </c>
     </row>
   </sheetData>
@@ -35234,7 +36702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -35245,12 +36713,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -35259,21 +36727,21 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -35300,7 +36768,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -35327,7 +36795,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>8</v>
